--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722B5D1-AB52-40D0-8807-564C2A4D71B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A68F4-97BF-4C4D-A987-945456EE09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Pset_PN</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>NCAP_BND</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>ELE_NEW_NUC_PWR</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -310,12 +310,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -663,11 +663,11 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="I3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="3">
         <v>0.8</v>
       </c>
@@ -677,42 +677,42 @@
     </row>
     <row r="4" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="6" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>2025</v>
@@ -738,8 +738,8 @@
       <c r="E6" s="4">
         <v>7.5307599999999999</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -763,7 +763,7 @@
     <row r="7" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
         <v>2030</v>
@@ -771,8 +771,8 @@
       <c r="E7" s="4">
         <v>7.5307599999999999</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I7">
         <v>26</v>
@@ -796,7 +796,7 @@
     <row r="8" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>2035</v>
@@ -804,8 +804,8 @@
       <c r="E8" s="4">
         <v>7.5307599999999999</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I8">
         <v>40</v>
@@ -829,7 +829,7 @@
     <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5">
         <v>2040</v>
@@ -837,8 +837,8 @@
       <c r="E9" s="4">
         <v>7.5307599999999999</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -854,7 +854,7 @@
     <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4">
         <v>2045</v>
@@ -862,8 +862,8 @@
       <c r="E10" s="4">
         <v>7.5307599999999999</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>26</v>
+      <c r="F10" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -879,7 +879,7 @@
     <row r="11" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>2050</v>
@@ -887,11 +887,11 @@
       <c r="E11" s="4">
         <v>7.5307599999999999</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11">
         <f>SUM(K5:K10)</f>
@@ -900,22 +900,22 @@
     </row>
     <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5">
         <v>2030</v>
@@ -923,17 +923,17 @@
       <c r="E13" s="4">
         <v>3.9</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>28</v>
+      <c r="F13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5">
         <v>2040</v>
@@ -941,29 +941,29 @@
       <c r="E14" s="4">
         <v>11</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>28</v>
+      <c r="F14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5">
         <v>2035</v>
@@ -971,17 +971,17 @@
       <c r="E16" s="4">
         <v>0.01</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>33</v>
+      <c r="F16" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5">
         <v>2040</v>
@@ -989,17 +989,17 @@
       <c r="E17" s="4">
         <v>0.03</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>33</v>
+      <c r="F17" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="5">
         <v>2045</v>
@@ -1007,17 +1007,17 @@
       <c r="E18" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>33</v>
+      <c r="F18" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="5">
         <v>2050</v>
@@ -1025,47 +1025,47 @@
       <c r="E19" s="4">
         <v>0.11</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>33</v>
+      <c r="F19" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5">
         <v>2035</v>
       </c>
       <c r="E21" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>35</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5">
         <v>2040</v>
@@ -1073,17 +1073,17 @@
       <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>35</v>
+      <c r="F22" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="5">
         <v>2050</v>
@@ -1091,41 +1091,41 @@
       <c r="E23" s="4">
         <v>8</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>35</v>
+      <c r="F23" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="13">
         <v>0</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,10 +1145,10 @@
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="29" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="9">
         <v>2035</v>
@@ -1168,7 +1168,7 @@
         <v>3.5</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1183,6 +1183,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1377,15 +1386,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1398,6 +1398,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1416,14 +1424,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Projekt_JM\Project-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A68F4-97BF-4C4D-A987-945456EE09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -74,30 +73,9 @@
     <t>ELE_NEW_NUC_SMR</t>
   </si>
   <si>
-    <t>SMRów/5lat</t>
-  </si>
-  <si>
-    <t>moc SMRa</t>
-  </si>
-  <si>
-    <t>NCAP fx</t>
-  </si>
-  <si>
-    <t>Plan Orlenu</t>
-  </si>
-  <si>
-    <t>NCAP LO</t>
-  </si>
-  <si>
-    <t>RAZEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">\I: </t>
   </si>
   <si>
-    <t>NCAP UP</t>
-  </si>
-  <si>
     <t>LO</t>
   </si>
   <si>
@@ -141,12 +119,21 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>Nowe moce PV</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_GRND</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -292,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -316,6 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -334,9 +322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,9 +362,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,26 +607,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="2.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="7" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -647,7 +635,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -663,19 +651,13 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -691,46 +673,26 @@
       <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>300</v>
-      </c>
-      <c r="K5">
-        <f>I5*J5/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>2025</v>
@@ -739,31 +701,13 @@
         <v>7.5307599999999999</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>300</v>
-      </c>
-      <c r="K6">
-        <f>I6*J6/1000</f>
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <f>K6</f>
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <f>L6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5">
         <v>2030</v>
@@ -772,31 +716,13 @@
         <v>7.5307599999999999</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>26</v>
-      </c>
-      <c r="J7">
-        <v>300</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K10" si="0">I7*J7/1000</f>
-        <v>7.8</v>
-      </c>
-      <c r="L7">
-        <f>INT($I7*L$3)*$J7/1000</f>
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <f>INT($I7*M$3)*$J7/1000</f>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <v>2035</v>
@@ -805,31 +731,13 @@
         <v>7.5307599999999999</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>40</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <f>INT($I8*L$3)*$J8/1000</f>
-        <v>9.6</v>
-      </c>
-      <c r="M8">
-        <f>INT($I8*M$3)*$J8/1000</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5">
         <v>2040</v>
@@ -838,23 +746,13 @@
         <v>7.5307599999999999</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>300</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4">
         <v>2045</v>
@@ -863,23 +761,13 @@
         <v>7.5307599999999999</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>300</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5">
         <v>2050</v>
@@ -888,31 +776,25 @@
         <v>7.5307599999999999</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11">
-        <f>SUM(K5:K10)</f>
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="12"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -924,13 +806,13 @@
         <v>3.9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -942,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="12"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -972,13 +854,13 @@
         <v>0.01</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
@@ -990,13 +872,13 @@
         <v>0.03</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
@@ -1008,13 +890,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
@@ -1026,25 +908,25 @@
         <v>0.11</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="12"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
@@ -1056,13 +938,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>11</v>
@@ -1074,13 +956,13 @@
         <v>5</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>11</v>
@@ -1092,83 +974,202 @@
         <v>8</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="12"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2035</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2045</v>
+      </c>
+      <c r="E28" s="4">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E29" s="4">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D31" s="13">
         <v>0</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E31" s="13">
         <v>2</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D32" s="4">
         <v>0</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E32" s="4">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D35" s="15">
+        <v>2050</v>
+      </c>
+      <c r="E35" s="15">
+        <v>20</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9">
         <v>2035</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E36" s="9">
         <v>3.5</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>27</v>
+      <c r="F36" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1192,6 +1193,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1386,17 +1398,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -1406,6 +1407,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1422,17 +1436,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>UP</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-ON</t>
   </si>
 </sst>
 </file>
@@ -300,10 +303,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M36"/>
+  <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -651,9 +654,9 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
@@ -1139,36 +1142,104 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>2050</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>20</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="14">
+        <v>2030</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="14">
+        <v>2035</v>
+      </c>
+      <c r="E37" s="14">
+        <v>6</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="14">
+        <v>2040</v>
+      </c>
+      <c r="E38" s="14">
+        <v>12</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="14">
+        <v>2045</v>
+      </c>
+      <c r="E39" s="14">
+        <v>15</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D40" s="9">
         <v>2035</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E40" s="9">
         <v>3.5</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1184,26 +1255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1398,10 +1449,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1420,20 +1502,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1125,21 +1125,32 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="14">
+        <v>2050</v>
+      </c>
+      <c r="E34" s="14">
+        <v>20</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
@@ -1149,13 +1160,13 @@
         <v>6</v>
       </c>
       <c r="D35" s="14">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="E35" s="14">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1166,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="D36" s="14">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="E36" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>32</v>
@@ -1183,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="D37" s="14">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E37" s="14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>32</v>
@@ -1200,46 +1211,29 @@
         <v>6</v>
       </c>
       <c r="D38" s="14">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="E38" s="14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="14" t="s">
+    <row r="39" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="14">
-        <v>2045</v>
-      </c>
-      <c r="E39" s="14">
-        <v>15</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="D39" s="9">
         <v>2035</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E39" s="9">
         <v>3.5</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1450,6 +1444,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1458,15 +1461,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1489,6 +1483,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1499,12 +1501,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M39"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1084,107 +1084,110 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2035</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E32" s="4">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>2</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="14">
-        <v>2050</v>
-      </c>
-      <c r="E34" s="14">
-        <v>20</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>30</v>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="14">
-        <v>2030</v>
-      </c>
-      <c r="E35" s="14">
-        <v>3</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>32</v>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="14">
-        <v>2035</v>
-      </c>
-      <c r="E36" s="14">
-        <v>6</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="B36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
@@ -1194,13 +1197,13 @@
         <v>6</v>
       </c>
       <c r="D37" s="14">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E37" s="14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1211,29 +1214,80 @@
         <v>6</v>
       </c>
       <c r="D38" s="14">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="E38" s="14">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="14">
+        <v>2035</v>
+      </c>
+      <c r="E39" s="14">
+        <v>6</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="14">
+        <v>2040</v>
+      </c>
+      <c r="E40" s="14">
+        <v>12</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="14">
+        <v>2045</v>
+      </c>
+      <c r="E41" s="14">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D42" s="9">
         <v>2035</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E42" s="9">
         <v>3.5</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1444,15 +1498,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1461,6 +1506,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1483,14 +1537,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1501,4 +1547,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -614,7 +614,7 @@
   <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1112,7 @@
         <v>2035</v>
       </c>
       <c r="E31" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>30</v>
@@ -1130,7 +1130,7 @@
         <v>2040</v>
       </c>
       <c r="E32" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>30</v>
@@ -1498,6 +1498,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1506,15 +1515,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1537,6 +1537,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1547,12 +1555,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Projekt_JM\Project-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\Project-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7124FFD-92D0-463F-8902-95F2B4334ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -136,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -282,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -303,7 +291,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,9 +312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,9 +352,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,26 +597,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="2.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="7" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -638,7 +625,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -654,13 +641,13 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -682,7 +669,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
@@ -693,7 +680,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -707,7 +694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -722,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -737,7 +724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -752,7 +739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -767,7 +754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -783,7 +770,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -795,7 +782,7 @@
       <c r="F12" s="12"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
@@ -813,7 +800,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
@@ -831,7 +818,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -843,7 +830,7 @@
       <c r="F15" s="12"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
@@ -861,7 +848,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -879,7 +866,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
@@ -897,7 +884,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
@@ -915,7 +902,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
@@ -927,7 +914,7 @@
       <c r="F20" s="12"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
@@ -945,7 +932,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
@@ -963,7 +950,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
@@ -981,7 +968,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
@@ -993,7 +980,7 @@
       <c r="F24" s="12"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +998,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1016,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1034,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1052,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1070,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1088,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
@@ -1119,7 +1106,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
@@ -1137,157 +1124,175 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E33" s="4">
+        <v>18</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>0</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>2</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
+    <row r="37" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="13">
         <v>2050</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="13">
         <v>20</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="14" t="s">
+    <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="13">
         <v>2030</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="13">
         <v>3</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="13">
         <v>2035</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="13">
         <v>6</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+    <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="13">
         <v>2040</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="13">
         <v>12</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+    <row r="42" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="13">
         <v>2045</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="13">
         <v>15</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+    <row r="43" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>2035</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>3.5</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1303,6 +1308,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1497,27 +1522,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1534,25 +1560,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\Project-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7124FFD-92D0-463F-8902-95F2B4334ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E158B83-8D1C-4704-B0F8-6DA7F7204EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -820,32 +820,32 @@
     </row>
     <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2045</v>
+      </c>
+      <c r="E15" s="4">
+        <v>18</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2035</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="12"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -856,10 +856,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E17" s="4">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>25</v>
@@ -874,10 +874,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="5">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E18" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>25</v>
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="5">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="E19" s="4">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>25</v>
@@ -904,32 +904,32 @@
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2035</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="12"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
         <v>11</v>
       </c>
       <c r="D22" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E22" s="4">
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>27</v>
@@ -958,10 +958,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E23" s="4">
-        <v>8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>27</v>
@@ -970,32 +970,32 @@
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2030</v>
-      </c>
-      <c r="E25" s="4">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="12"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,10 +1006,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E26" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>30</v>
@@ -1024,10 +1024,10 @@
         <v>11</v>
       </c>
       <c r="D27" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E27" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>30</v>
@@ -1042,10 +1042,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="5">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E28" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>30</v>
@@ -1060,10 +1060,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="5">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="E29" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>30</v>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E30" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>30</v>
@@ -1096,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E31" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>30</v>
@@ -1114,10 +1114,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E32" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>30</v>
@@ -1132,84 +1132,85 @@
         <v>11</v>
       </c>
       <c r="D33" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E33" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E34" s="4">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>0</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>2</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+    <row r="37" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D37" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>2</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="13">
-        <v>2050</v>
-      </c>
-      <c r="E38" s="13">
-        <v>20</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
@@ -1219,13 +1220,13 @@
         <v>6</v>
       </c>
       <c r="D39" s="13">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E39" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,10 +1237,10 @@
         <v>6</v>
       </c>
       <c r="D40" s="13">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E40" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>32</v>
@@ -1253,10 +1254,10 @@
         <v>6</v>
       </c>
       <c r="D41" s="13">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E41" s="13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>32</v>
@@ -1270,29 +1271,46 @@
         <v>6</v>
       </c>
       <c r="D42" s="13">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E42" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2045</v>
+      </c>
+      <c r="E43" s="13">
+        <v>15</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>2035</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>3.5</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1308,6 +1326,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1316,15 +1343,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,6 +1541,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1531,14 +1557,6 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\Project-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E158B83-8D1C-4704-B0F8-6DA7F7204EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51484B49-4DBA-4478-B271-1E12191F50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="33">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M44"/>
+  <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -838,32 +838,32 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2035</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2035</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="12"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,10 +874,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E18" s="4">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>25</v>
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="5">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E19" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>25</v>
@@ -910,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="5">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="E20" s="4">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>25</v>
@@ -922,32 +922,32 @@
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2035</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="12"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -958,10 +958,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E23" s="4">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>27</v>
@@ -976,10 +976,10 @@
         <v>11</v>
       </c>
       <c r="D24" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E24" s="4">
-        <v>7.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>27</v>
@@ -988,32 +988,32 @@
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2030</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="12"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,10 +1024,10 @@
         <v>11</v>
       </c>
       <c r="D27" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E27" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>30</v>
@@ -1042,10 +1042,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E28" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>30</v>
@@ -1060,10 +1060,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="5">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E29" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="5">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="E30" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>30</v>
@@ -1090,16 +1090,16 @@
     </row>
     <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E31" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>30</v>
@@ -1114,10 +1114,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E32" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>30</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E33" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>30</v>
@@ -1150,84 +1150,85 @@
         <v>11</v>
       </c>
       <c r="D34" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E34" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E35" s="4">
+        <v>18</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>0</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>2</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="4">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+    <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2050</v>
-      </c>
-      <c r="E39" s="13">
-        <v>20</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
@@ -1237,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="D40" s="13">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E40" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="D41" s="13">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E41" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>32</v>
@@ -1271,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="D42" s="13">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E42" s="13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>32</v>
@@ -1288,29 +1289,46 @@
         <v>6</v>
       </c>
       <c r="D43" s="13">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E43" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2045</v>
+      </c>
+      <c r="E44" s="13">
+        <v>15</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>2035</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>3.5</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1326,15 +1344,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1343,6 +1352,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1541,14 +1559,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1557,6 +1567,14 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Scen_NCAP_NAS.xlsx
+++ b/SuppXLS/Scen_NCAP_NAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_jak\Desktop\Times\Project-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51484B49-4DBA-4478-B271-1E12191F50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89AA8A4-2D66-41C9-90CA-42C9FB2057B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M45"/>
+  <dimension ref="B2:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -856,32 +856,32 @@
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2045</v>
+      </c>
+      <c r="E17" s="4">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2035</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="12"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E19" s="4">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>25</v>
@@ -910,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="5">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E20" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>25</v>
@@ -928,10 +928,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="5">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="E21" s="4">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>25</v>
@@ -940,32 +940,32 @@
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2035</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="12"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>11</v>
       </c>
       <c r="D24" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E24" s="4">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>27</v>
@@ -994,10 +994,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E25" s="4">
-        <v>7.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>27</v>
@@ -1006,32 +1006,32 @@
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2030</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E28" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>30</v>
@@ -1060,10 +1060,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E29" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="5">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E30" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>30</v>
@@ -1096,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="5">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="E31" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>30</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E32" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>30</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E33" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>30</v>
@@ -1150,10 +1150,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E34" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>30</v>
@@ -1168,84 +1168,85 @@
         <v>11</v>
       </c>
       <c r="D35" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E35" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E36" s="4">
+        <v>18</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>0</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>2</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+    <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <v>2</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="13">
-        <v>2050</v>
-      </c>
-      <c r="E40" s="13">
-        <v>20</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
@@ -1255,13 +1256,13 @@
         <v>6</v>
       </c>
       <c r="D41" s="13">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="E41" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="D42" s="13">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="E42" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>32</v>
@@ -1289,10 +1290,10 @@
         <v>6</v>
       </c>
       <c r="D43" s="13">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E43" s="13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>32</v>
@@ -1306,29 +1307,46 @@
         <v>6</v>
       </c>
       <c r="D44" s="13">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E44" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="13">
+        <v>2045</v>
+      </c>
+      <c r="E45" s="13">
+        <v>15</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>2035</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>3.5</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1344,6 +1362,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -1352,15 +1379,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1559,6 +1577,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1567,14 +1593,6 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
